--- a/Assets/Excel/RoleInfo.xlsx
+++ b/Assets/Excel/RoleInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\UnityProject\BlueValkyrie\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17E7A96-F1EE-4913-8FB7-9B60261F93DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E451A7FD-09F7-451F-B26B-0E08F7D6E155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2535" yWindow="1875" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5280" yWindow="4425" windowWidth="25290" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RoleInfo" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="116">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,9 +139,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阿拜多斯对策委员会</t>
-  </si>
-  <si>
     <t>高中2年级</t>
   </si>
   <si>
@@ -201,43 +198,570 @@
     <t>写家记簿、收集古董</t>
   </si>
   <si>
+    <t>十六夜野乃美</t>
+  </si>
+  <si>
+    <t>十六夜 ノノミ</t>
+  </si>
+  <si>
+    <t>购物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光环、巨乳、环形辫、大小姐、温柔、运动鞋、偶像</t>
+  </si>
+  <si>
+    <t>学校名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴趣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萌点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aru</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gehenna</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aris</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Millennium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Azusa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trinity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hihumi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Koharu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆八魔亚瑠</t>
+  </si>
+  <si>
+    <t>陸八魔 アル</t>
+  </si>
+  <si>
+    <t>格黑娜学园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高中2年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习经营</t>
+  </si>
+  <si>
+    <r>
+      <t>光环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2C3E50"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>近视</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2C3E50"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>大姐头</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2C3E50"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>反差萌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2C3E50"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>笨蛋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2C3E50"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>吃瘪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2C3E50"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>外套披肩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2C3E50"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>开叉裙</t>
+    </r>
+  </si>
+  <si>
+    <t>天童爱丽丝</t>
+  </si>
+  <si>
+    <t>天童 アリス</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高中1年级</t>
+  </si>
+  <si>
+    <t>游戏 (RPG)</t>
+  </si>
+  <si>
+    <t>光环、机娘、中二病、龙须刘海、半马尾、超长发</t>
+  </si>
+  <si>
+    <t>白洲梓</t>
+  </si>
+  <si>
+    <t>白洲 アズサ</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <r>
+      <t>光环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2C3E50"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>翅膀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2C3E50"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>贫乳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2C3E50"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>冰美人</t>
+    </r>
+  </si>
+  <si>
+    <t>三一综合学园</t>
+  </si>
+  <si>
+    <t>阿拜多斯高中</t>
+  </si>
+  <si>
+    <t>千年科学学园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿慈谷日富美</t>
+  </si>
+  <si>
+    <t>阿慈谷 ヒフミ</t>
+  </si>
+  <si>
+    <t>收集佩洛洛周边商品、购物、听人说话</t>
+  </si>
+  <si>
+    <t>光环、下双马尾、土妹子、冒失、元气、黑色连裤袜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下江小春</t>
+  </si>
+  <si>
+    <t>下江 コハル</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2C3E50"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2C3E50"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2C3E50"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年级</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻想、妄想、收集色情杂志</t>
+  </si>
+  <si>
+    <t>光环、翅膀、贫乳、怕生、下双马尾、猫眼、泡泡袜、笨蛋、妄想、淑女、睡神</t>
+  </si>
+  <si>
     <t>光环、眼镜、短发、精灵耳、校服、认真、常识人、老实人、天然呆、优等生、平地摔跤</t>
-  </si>
-  <si>
-    <t>十六夜野乃美</t>
-  </si>
-  <si>
-    <t>十六夜 ノノミ</t>
-  </si>
-  <si>
-    <t>购物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光环、巨乳、环形辫、大小姐、温柔、运动鞋、偶像</t>
-  </si>
-  <si>
-    <t>学校名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兴趣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>萌点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空崎阳奈</t>
+  </si>
+  <si>
+    <t>空崎 ヒナ</t>
+  </si>
+  <si>
+    <t>高中3年级</t>
+  </si>
+  <si>
+    <t>睡觉，休息</t>
+  </si>
+  <si>
+    <r>
+      <t>光环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2C3E50"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>萝莉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2C3E50"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>反差萌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2C3E50"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>黑色过膝袜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2C3E50"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>军服</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2C3E50"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>半马尾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2C3E50"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>人字刘海</t>
+    </r>
+  </si>
+  <si>
+    <t>Maki</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小涂真纪</t>
+  </si>
+  <si>
+    <t>小塗 マキ</t>
+  </si>
+  <si>
+    <t>涂鸦、玩游戏</t>
+  </si>
+  <si>
+    <t>光环、萝莉、元气、短裙、丸子头、运动鞋、机枪、黑客</t>
+  </si>
+  <si>
+    <t>才羽绿</t>
+  </si>
+  <si>
+    <t>Midori</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>才羽 ミドリ</t>
+  </si>
+  <si>
+    <t>画图</t>
+  </si>
+  <si>
+    <t>光环、猫耳、弱气、宅女、黑色过膝袜、双胞胎</t>
+  </si>
+  <si>
+    <t>Momoi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>才羽桃井</t>
+  </si>
+  <si>
+    <t>才羽 モモイ</t>
+  </si>
+  <si>
+    <t>游戏</t>
+  </si>
+  <si>
+    <t>光环、猫耳、宅女、外套半脱、黑色过膝袜、双胞胎</t>
+  </si>
+  <si>
+    <t>Yuuka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早濑优香</t>
+  </si>
+  <si>
+    <t>早瀬 ユウカ</t>
+  </si>
+  <si>
+    <t>计算</t>
+  </si>
+  <si>
+    <t>光环、披肩双马尾、外套半脱、理科少女、学生会会计、优等生、教科书级傲娇</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,6 +781,27 @@
       <color rgb="FF2C3E50"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2C3E50"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -279,9 +824,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -562,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -576,7 +1120,7 @@
     <col min="6" max="6" width="7" customWidth="1"/>
     <col min="7" max="7" width="19.625" customWidth="1"/>
     <col min="8" max="8" width="11.25" customWidth="1"/>
-    <col min="9" max="9" width="23.75" customWidth="1"/>
+    <col min="9" max="9" width="33.75" customWidth="1"/>
     <col min="10" max="10" width="98.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -606,10 +1150,10 @@
         <v>27</v>
       </c>
       <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
         <v>30</v>
-      </c>
-      <c r="J1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -666,16 +1210,16 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" t="s">
         <v>52</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>53</v>
-      </c>
-      <c r="I4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -689,25 +1233,25 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
         <v>44</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
       </c>
       <c r="F5">
         <v>15</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>28</v>
+      <c r="G5" t="s">
+        <v>78</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -721,25 +1265,25 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
         <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
       </c>
       <c r="F6">
         <v>17</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>28</v>
+      <c r="G6" t="s">
+        <v>78</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" t="s">
         <v>36</v>
-      </c>
-      <c r="J6" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -753,25 +1297,25 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F7">
         <v>16</v>
       </c>
       <c r="G7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" t="s">
         <v>28</v>
       </c>
-      <c r="H7" t="s">
-        <v>29</v>
-      </c>
       <c r="I7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -785,25 +1329,25 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
         <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>40</v>
       </c>
       <c r="F8">
         <v>15</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>28</v>
+      <c r="G8" t="s">
+        <v>78</v>
       </c>
       <c r="H8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" t="s">
         <v>42</v>
-      </c>
-      <c r="J8" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -826,16 +1370,336 @@
         <v>16</v>
       </c>
       <c r="G9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" t="s">
         <v>28</v>
       </c>
-      <c r="H9" t="s">
-        <v>29</v>
-      </c>
       <c r="I9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" t="s">
         <v>32</v>
       </c>
-      <c r="J9" t="s">
-        <v>33</v>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12">
+        <v>-1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" t="s">
+        <v>99</v>
+      </c>
+      <c r="J13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" t="s">
+        <v>104</v>
+      </c>
+      <c r="J14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" t="s">
+        <v>109</v>
+      </c>
+      <c r="J15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>114</v>
+      </c>
+      <c r="J16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>82</v>
+      </c>
+      <c r="J18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19" t="s">
+        <v>87</v>
+      </c>
+      <c r="J19" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -847,10 +1711,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6945EFFC-A6E5-477D-AC00-318B71A81C8B}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D1:D4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -901,10 +1765,10 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -912,10 +1776,10 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -923,10 +1787,10 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -934,21 +1798,10 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/RoleInfo.xlsx
+++ b/Assets/Excel/RoleInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\UnityProject\BlueValkyrie\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E451A7FD-09F7-451F-B26B-0E08F7D6E155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92322270-3B41-491C-AB41-0B36C3014BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="4425" windowWidth="25290" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RoleInfo" sheetId="1" r:id="rId1"/>
@@ -1108,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -1256,7 +1256,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2</v>
+        <v>1002</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>3</v>
+        <v>1003</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -1320,7 +1320,7 @@
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>4</v>
+        <v>1004</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1352,7 +1352,7 @@
     </row>
     <row r="9" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>5</v>
+        <v>1005</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>6</v>
+        <v>1006</v>
       </c>
       <c r="B10" t="s">
         <v>54</v>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>7</v>
+        <v>1007</v>
       </c>
       <c r="B11" t="s">
         <v>90</v>
@@ -1448,7 +1448,7 @@
     </row>
     <row r="12" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>8</v>
+        <v>1008</v>
       </c>
       <c r="B12" t="s">
         <v>56</v>
@@ -1480,7 +1480,7 @@
     </row>
     <row r="13" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>9</v>
+        <v>1009</v>
       </c>
       <c r="B13" t="s">
         <v>96</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="14" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>10</v>
+        <v>1010</v>
       </c>
       <c r="B14" t="s">
         <v>102</v>
@@ -1544,7 +1544,7 @@
     </row>
     <row r="15" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>11</v>
+        <v>1011</v>
       </c>
       <c r="B15" t="s">
         <v>106</v>
@@ -1576,7 +1576,7 @@
     </row>
     <row r="16" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>12</v>
+        <v>1012</v>
       </c>
       <c r="B16" t="s">
         <v>111</v>
@@ -1608,7 +1608,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>13</v>
+        <v>1013</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -1640,7 +1640,7 @@
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>14</v>
+        <v>1014</v>
       </c>
       <c r="B18" t="s">
         <v>60</v>
@@ -1672,7 +1672,7 @@
     </row>
     <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>15</v>
+        <v>1015</v>
       </c>
       <c r="B19" t="s">
         <v>61</v>
@@ -1713,8 +1713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6945EFFC-A6E5-477D-AC00-318B71A81C8B}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1765,7 +1765,7 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1002</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -1776,7 +1776,7 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>1007</v>
       </c>
       <c r="C6" t="s">
         <v>90</v>
@@ -1787,7 +1787,7 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>1012</v>
       </c>
       <c r="C7" t="s">
         <v>111</v>
@@ -1798,7 +1798,7 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>1013</v>
       </c>
       <c r="C8" t="s">
         <v>58</v>
